--- a/Output/10_WorkShop_Input_Energy_By_Province.xlsx
+++ b/Output/10_WorkShop_Input_Energy_By_Province.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P675"/>
+  <dimension ref="A1:P673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33796,91 +33796,159 @@
       </c>
     </row>
     <row r="642">
-      <c r="A642" t="inlineStr"/>
-      <c r="B642" t="inlineStr"/>
-      <c r="C642" t="inlineStr"/>
-      <c r="D642" t="inlineStr"/>
-      <c r="E642" t="inlineStr"/>
-      <c r="F642" t="inlineStr"/>
-      <c r="G642" t="inlineStr"/>
-      <c r="H642" t="inlineStr"/>
-      <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
-      <c r="L642" t="inlineStr"/>
-      <c r="M642" t="inlineStr"/>
-      <c r="N642" t="inlineStr"/>
-      <c r="O642" t="inlineStr"/>
-      <c r="P642" t="inlineStr"/>
+      <c r="A642" t="n">
+        <v>1401</v>
+      </c>
+      <c r="B642" t="n">
+        <v>0</v>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>کل کشور</t>
+        </is>
+      </c>
+      <c r="D642" t="n">
+        <v>1474112869</v>
+      </c>
+      <c r="E642" t="n">
+        <v>386385</v>
+      </c>
+      <c r="F642" t="n">
+        <v>16631844</v>
+      </c>
+      <c r="G642" t="n">
+        <v>62345326</v>
+      </c>
+      <c r="H642" t="n">
+        <v>505388910</v>
+      </c>
+      <c r="I642" t="n">
+        <v>11776854</v>
+      </c>
+      <c r="J642" t="n">
+        <v>16723677</v>
+      </c>
+      <c r="K642" t="n">
+        <v>1229919</v>
+      </c>
+      <c r="L642" t="n">
+        <v>137363</v>
+      </c>
+      <c r="M642" t="n">
+        <v>97659</v>
+      </c>
+      <c r="N642" t="n">
+        <v>146494720</v>
+      </c>
+      <c r="O642" t="n">
+        <v>601335862</v>
+      </c>
+      <c r="P642" t="n">
+        <v>111564351</v>
+      </c>
     </row>
     <row r="643">
-      <c r="A643" t="inlineStr"/>
-      <c r="B643" t="inlineStr"/>
-      <c r="C643" t="inlineStr"/>
-      <c r="D643" t="inlineStr"/>
-      <c r="E643" t="inlineStr"/>
-      <c r="F643" t="inlineStr"/>
-      <c r="G643" t="inlineStr"/>
-      <c r="H643" t="inlineStr"/>
-      <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
-      <c r="L643" t="inlineStr"/>
-      <c r="M643" t="inlineStr"/>
-      <c r="N643" t="inlineStr"/>
-      <c r="O643" t="inlineStr"/>
-      <c r="P643" t="inlineStr"/>
+      <c r="A643" t="n">
+        <v>1401</v>
+      </c>
+      <c r="B643" t="n">
+        <v>1</v>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>آذربایجان شرقی</t>
+        </is>
+      </c>
+      <c r="D643" t="n">
+        <v>30669224</v>
+      </c>
+      <c r="E643" t="n">
+        <v>10626</v>
+      </c>
+      <c r="F643" t="n">
+        <v>278656</v>
+      </c>
+      <c r="G643" t="n">
+        <v>73969</v>
+      </c>
+      <c r="H643" t="n">
+        <v>20352604</v>
+      </c>
+      <c r="I643" t="n">
+        <v>216085</v>
+      </c>
+      <c r="J643" t="n">
+        <v>367976</v>
+      </c>
+      <c r="K643" t="n">
+        <v>0</v>
+      </c>
+      <c r="L643" t="n">
+        <v>0</v>
+      </c>
+      <c r="M643" t="n">
+        <v>0</v>
+      </c>
+      <c r="N643" t="n">
+        <v>1239</v>
+      </c>
+      <c r="O643" t="n">
+        <v>7835840</v>
+      </c>
+      <c r="P643" t="n">
+        <v>1532227</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
         <v>1401</v>
       </c>
       <c r="B644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>کل کشور</t>
+          <t>آذربایجان غربی</t>
         </is>
       </c>
       <c r="D644" t="n">
-        <v>1474112869</v>
+        <v>9109801</v>
       </c>
       <c r="E644" t="n">
-        <v>386385</v>
+        <v>997</v>
       </c>
       <c r="F644" t="n">
-        <v>16631844</v>
+        <v>185804</v>
       </c>
       <c r="G644" t="n">
-        <v>62345326</v>
+        <v>16384</v>
       </c>
       <c r="H644" t="n">
-        <v>505388910</v>
+        <v>4883120</v>
       </c>
       <c r="I644" t="n">
-        <v>11776854</v>
+        <v>75722</v>
       </c>
       <c r="J644" t="n">
-        <v>16723677</v>
+        <v>861773</v>
       </c>
       <c r="K644" t="n">
-        <v>1229919</v>
+        <v>0</v>
       </c>
       <c r="L644" t="n">
-        <v>137363</v>
+        <v>0</v>
       </c>
       <c r="M644" t="n">
-        <v>97659</v>
+        <v>0</v>
       </c>
       <c r="N644" t="n">
-        <v>146494720</v>
+        <v>12465</v>
       </c>
       <c r="O644" t="n">
-        <v>601335862</v>
+        <v>2651733</v>
       </c>
       <c r="P644" t="n">
-        <v>111564351</v>
+        <v>421803</v>
       </c>
     </row>
     <row r="645">
@@ -33888,51 +33956,51 @@
         <v>1401</v>
       </c>
       <c r="B645" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>آذربایجان شرقی</t>
+          <t>اردبیل</t>
         </is>
       </c>
       <c r="D645" t="n">
-        <v>30669224</v>
+        <v>2740468</v>
       </c>
       <c r="E645" t="n">
-        <v>10626</v>
+        <v>4704</v>
       </c>
       <c r="F645" t="n">
-        <v>278656</v>
+        <v>80655</v>
       </c>
       <c r="G645" t="n">
-        <v>73969</v>
+        <v>333110</v>
       </c>
       <c r="H645" t="n">
-        <v>20352604</v>
+        <v>1079723</v>
       </c>
       <c r="I645" t="n">
-        <v>216085</v>
+        <v>33389</v>
       </c>
       <c r="J645" t="n">
-        <v>367976</v>
+        <v>2393</v>
       </c>
       <c r="K645" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="L645" t="n">
         <v>0</v>
       </c>
       <c r="M645" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="N645" t="n">
-        <v>1239</v>
+        <v>44724</v>
       </c>
       <c r="O645" t="n">
-        <v>7835840</v>
+        <v>1126386</v>
       </c>
       <c r="P645" t="n">
-        <v>1532227</v>
+        <v>34120</v>
       </c>
     </row>
     <row r="646">
@@ -33940,51 +34008,51 @@
         <v>1401</v>
       </c>
       <c r="B646" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>آذربایجان غربی</t>
+          <t>اصفهان</t>
         </is>
       </c>
       <c r="D646" t="n">
-        <v>9109801</v>
+        <v>209201204</v>
       </c>
       <c r="E646" t="n">
-        <v>997</v>
+        <v>72768</v>
       </c>
       <c r="F646" t="n">
-        <v>185804</v>
+        <v>985522</v>
       </c>
       <c r="G646" t="n">
-        <v>16384</v>
+        <v>369015</v>
       </c>
       <c r="H646" t="n">
-        <v>4883120</v>
+        <v>55991197</v>
       </c>
       <c r="I646" t="n">
-        <v>75722</v>
+        <v>568198</v>
       </c>
       <c r="J646" t="n">
-        <v>861773</v>
+        <v>780806</v>
       </c>
       <c r="K646" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="L646" t="n">
-        <v>0</v>
+        <v>2898</v>
       </c>
       <c r="M646" t="n">
-        <v>0</v>
+        <v>2776</v>
       </c>
       <c r="N646" t="n">
-        <v>12465</v>
+        <v>880521</v>
       </c>
       <c r="O646" t="n">
-        <v>2651733</v>
+        <v>143819790</v>
       </c>
       <c r="P646" t="n">
-        <v>421803</v>
+        <v>5727498</v>
       </c>
     </row>
     <row r="647">
@@ -33992,51 +34060,51 @@
         <v>1401</v>
       </c>
       <c r="B647" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>اردبیل</t>
+          <t>البرز</t>
         </is>
       </c>
       <c r="D647" t="n">
-        <v>2740468</v>
+        <v>11824242</v>
       </c>
       <c r="E647" t="n">
-        <v>4704</v>
+        <v>17022</v>
       </c>
       <c r="F647" t="n">
-        <v>80655</v>
+        <v>304020</v>
       </c>
       <c r="G647" t="n">
-        <v>333110</v>
+        <v>69823</v>
       </c>
       <c r="H647" t="n">
-        <v>1079723</v>
+        <v>3776536</v>
       </c>
       <c r="I647" t="n">
-        <v>33389</v>
+        <v>148289</v>
       </c>
       <c r="J647" t="n">
-        <v>2393</v>
+        <v>1017</v>
       </c>
       <c r="K647" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="L647" t="n">
-        <v>0</v>
+        <v>3741</v>
       </c>
       <c r="M647" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="N647" t="n">
-        <v>44724</v>
+        <v>1724865</v>
       </c>
       <c r="O647" t="n">
-        <v>1126386</v>
+        <v>5164584</v>
       </c>
       <c r="P647" t="n">
-        <v>34120</v>
+        <v>614346</v>
       </c>
     </row>
     <row r="648">
@@ -34044,51 +34112,51 @@
         <v>1401</v>
       </c>
       <c r="B648" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>اصفهان</t>
+          <t>ایلام</t>
         </is>
       </c>
       <c r="D648" t="n">
-        <v>209201204</v>
+        <v>6550205</v>
       </c>
       <c r="E648" t="n">
-        <v>72768</v>
+        <v>308</v>
       </c>
       <c r="F648" t="n">
-        <v>985522</v>
+        <v>17990</v>
       </c>
       <c r="G648" t="n">
-        <v>369015</v>
+        <v>3383</v>
       </c>
       <c r="H648" t="n">
-        <v>55991197</v>
+        <v>6295948</v>
       </c>
       <c r="I648" t="n">
-        <v>568198</v>
+        <v>5224</v>
       </c>
       <c r="J648" t="n">
-        <v>780806</v>
+        <v>0</v>
       </c>
       <c r="K648" t="n">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="L648" t="n">
-        <v>2898</v>
+        <v>0</v>
       </c>
       <c r="M648" t="n">
-        <v>2776</v>
+        <v>0</v>
       </c>
       <c r="N648" t="n">
-        <v>880521</v>
+        <v>0</v>
       </c>
       <c r="O648" t="n">
-        <v>143819790</v>
+        <v>186727</v>
       </c>
       <c r="P648" t="n">
-        <v>5727498</v>
+        <v>40625</v>
       </c>
     </row>
     <row r="649">
@@ -34096,51 +34164,51 @@
         <v>1401</v>
       </c>
       <c r="B649" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>البرز</t>
+          <t>بوشهر</t>
         </is>
       </c>
       <c r="D649" t="n">
-        <v>11824242</v>
+        <v>129075442</v>
       </c>
       <c r="E649" t="n">
-        <v>17022</v>
+        <v>17023</v>
       </c>
       <c r="F649" t="n">
-        <v>304020</v>
+        <v>118226</v>
       </c>
       <c r="G649" t="n">
-        <v>69823</v>
+        <v>768288</v>
       </c>
       <c r="H649" t="n">
-        <v>3776536</v>
+        <v>53155126</v>
       </c>
       <c r="I649" t="n">
-        <v>148289</v>
+        <v>42479</v>
       </c>
       <c r="J649" t="n">
-        <v>1017</v>
+        <v>150616</v>
       </c>
       <c r="K649" t="n">
         <v>0</v>
       </c>
       <c r="L649" t="n">
-        <v>3741</v>
+        <v>0</v>
       </c>
       <c r="M649" t="n">
         <v>0</v>
       </c>
       <c r="N649" t="n">
-        <v>1724865</v>
+        <v>17242803</v>
       </c>
       <c r="O649" t="n">
-        <v>5164584</v>
+        <v>39018138</v>
       </c>
       <c r="P649" t="n">
-        <v>614346</v>
+        <v>18562743</v>
       </c>
     </row>
     <row r="650">
@@ -34148,51 +34216,51 @@
         <v>1401</v>
       </c>
       <c r="B650" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>ایلام</t>
+          <t>تهران</t>
         </is>
       </c>
       <c r="D650" t="n">
-        <v>6550205</v>
+        <v>90995718</v>
       </c>
       <c r="E650" t="n">
-        <v>308</v>
+        <v>10099</v>
       </c>
       <c r="F650" t="n">
-        <v>17990</v>
+        <v>5426056</v>
       </c>
       <c r="G650" t="n">
-        <v>3383</v>
+        <v>417211</v>
       </c>
       <c r="H650" t="n">
-        <v>6295948</v>
+        <v>21001745</v>
       </c>
       <c r="I650" t="n">
-        <v>5224</v>
+        <v>7834543</v>
       </c>
       <c r="J650" t="n">
-        <v>0</v>
+        <v>204062</v>
       </c>
       <c r="K650" t="n">
-        <v>0</v>
+        <v>1475</v>
       </c>
       <c r="L650" t="n">
-        <v>0</v>
+        <v>5928</v>
       </c>
       <c r="M650" t="n">
         <v>0</v>
       </c>
       <c r="N650" t="n">
-        <v>0</v>
+        <v>4021033</v>
       </c>
       <c r="O650" t="n">
-        <v>186727</v>
+        <v>48706247</v>
       </c>
       <c r="P650" t="n">
-        <v>40625</v>
+        <v>3367320</v>
       </c>
     </row>
     <row r="651">
@@ -34200,33 +34268,33 @@
         <v>1401</v>
       </c>
       <c r="B651" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>چهارمحال و بختیاری</t>
         </is>
       </c>
       <c r="D651" t="n">
-        <v>129075442</v>
+        <v>15855057</v>
       </c>
       <c r="E651" t="n">
-        <v>17023</v>
+        <v>1672</v>
       </c>
       <c r="F651" t="n">
-        <v>118226</v>
+        <v>89010</v>
       </c>
       <c r="G651" t="n">
-        <v>768288</v>
+        <v>4832</v>
       </c>
       <c r="H651" t="n">
-        <v>53155126</v>
+        <v>14326960</v>
       </c>
       <c r="I651" t="n">
-        <v>42479</v>
+        <v>27728</v>
       </c>
       <c r="J651" t="n">
-        <v>150616</v>
+        <v>22197</v>
       </c>
       <c r="K651" t="n">
         <v>0</v>
@@ -34238,13 +34306,13 @@
         <v>0</v>
       </c>
       <c r="N651" t="n">
-        <v>17242803</v>
+        <v>2662</v>
       </c>
       <c r="O651" t="n">
-        <v>39018138</v>
+        <v>838972</v>
       </c>
       <c r="P651" t="n">
-        <v>18562743</v>
+        <v>541024</v>
       </c>
     </row>
     <row r="652">
@@ -34252,51 +34320,51 @@
         <v>1401</v>
       </c>
       <c r="B652" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>تهران</t>
+          <t>خراسان جنوبی</t>
         </is>
       </c>
       <c r="D652" t="n">
-        <v>90995718</v>
+        <v>3458175</v>
       </c>
       <c r="E652" t="n">
-        <v>10099</v>
+        <v>3626</v>
       </c>
       <c r="F652" t="n">
-        <v>5426056</v>
+        <v>1272061</v>
       </c>
       <c r="G652" t="n">
-        <v>417211</v>
+        <v>5325</v>
       </c>
       <c r="H652" t="n">
-        <v>21001745</v>
+        <v>905626</v>
       </c>
       <c r="I652" t="n">
-        <v>7834543</v>
+        <v>16728</v>
       </c>
       <c r="J652" t="n">
-        <v>204062</v>
+        <v>428159</v>
       </c>
       <c r="K652" t="n">
-        <v>1475</v>
+        <v>0</v>
       </c>
       <c r="L652" t="n">
-        <v>5928</v>
+        <v>0</v>
       </c>
       <c r="M652" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="N652" t="n">
-        <v>4021033</v>
+        <v>505</v>
       </c>
       <c r="O652" t="n">
-        <v>48706247</v>
+        <v>608947</v>
       </c>
       <c r="P652" t="n">
-        <v>3367320</v>
+        <v>217113</v>
       </c>
     </row>
     <row r="653">
@@ -34304,36 +34372,36 @@
         <v>1401</v>
       </c>
       <c r="B653" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>چهارمحال و بختیاری</t>
+          <t>خراسان رضوی</t>
         </is>
       </c>
       <c r="D653" t="n">
-        <v>15855057</v>
+        <v>25355976</v>
       </c>
       <c r="E653" t="n">
-        <v>1672</v>
+        <v>3869</v>
       </c>
       <c r="F653" t="n">
-        <v>89010</v>
+        <v>440233</v>
       </c>
       <c r="G653" t="n">
-        <v>4832</v>
+        <v>89346</v>
       </c>
       <c r="H653" t="n">
-        <v>14326960</v>
+        <v>10915685</v>
       </c>
       <c r="I653" t="n">
-        <v>27728</v>
+        <v>275802</v>
       </c>
       <c r="J653" t="n">
-        <v>22197</v>
+        <v>569170</v>
       </c>
       <c r="K653" t="n">
-        <v>0</v>
+        <v>25454</v>
       </c>
       <c r="L653" t="n">
         <v>0</v>
@@ -34342,13 +34410,13 @@
         <v>0</v>
       </c>
       <c r="N653" t="n">
-        <v>2662</v>
+        <v>76494</v>
       </c>
       <c r="O653" t="n">
-        <v>838972</v>
+        <v>10485405</v>
       </c>
       <c r="P653" t="n">
-        <v>541024</v>
+        <v>2474516</v>
       </c>
     </row>
     <row r="654">
@@ -34356,33 +34424,33 @@
         <v>1401</v>
       </c>
       <c r="B654" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>خراسان جنوبی</t>
+          <t>خراسان شمالی</t>
         </is>
       </c>
       <c r="D654" t="n">
-        <v>3458175</v>
+        <v>9149067</v>
       </c>
       <c r="E654" t="n">
-        <v>3626</v>
+        <v>768</v>
       </c>
       <c r="F654" t="n">
-        <v>1272061</v>
+        <v>61455</v>
       </c>
       <c r="G654" t="n">
-        <v>5325</v>
+        <v>21006</v>
       </c>
       <c r="H654" t="n">
-        <v>905626</v>
+        <v>6183133</v>
       </c>
       <c r="I654" t="n">
-        <v>16728</v>
+        <v>8648</v>
       </c>
       <c r="J654" t="n">
-        <v>428159</v>
+        <v>96499</v>
       </c>
       <c r="K654" t="n">
         <v>0</v>
@@ -34391,16 +34459,16 @@
         <v>0</v>
       </c>
       <c r="M654" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="N654" t="n">
-        <v>505</v>
+        <v>3832</v>
       </c>
       <c r="O654" t="n">
-        <v>608947</v>
+        <v>2215136</v>
       </c>
       <c r="P654" t="n">
-        <v>217113</v>
+        <v>558591</v>
       </c>
     </row>
     <row r="655">
@@ -34408,51 +34476,51 @@
         <v>1401</v>
       </c>
       <c r="B655" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>خراسان رضوی</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="D655" t="n">
-        <v>25355976</v>
+        <v>267984243</v>
       </c>
       <c r="E655" t="n">
-        <v>3869</v>
+        <v>166</v>
       </c>
       <c r="F655" t="n">
-        <v>440233</v>
+        <v>1252821</v>
       </c>
       <c r="G655" t="n">
-        <v>89346</v>
+        <v>6340289</v>
       </c>
       <c r="H655" t="n">
-        <v>10915685</v>
+        <v>79885987</v>
       </c>
       <c r="I655" t="n">
-        <v>275802</v>
+        <v>682111</v>
       </c>
       <c r="J655" t="n">
-        <v>569170</v>
+        <v>116624</v>
       </c>
       <c r="K655" t="n">
-        <v>25454</v>
+        <v>1618</v>
       </c>
       <c r="L655" t="n">
         <v>0</v>
       </c>
       <c r="M655" t="n">
-        <v>0</v>
+        <v>90495</v>
       </c>
       <c r="N655" t="n">
-        <v>76494</v>
+        <v>9914737</v>
       </c>
       <c r="O655" t="n">
-        <v>10485405</v>
+        <v>121325461</v>
       </c>
       <c r="P655" t="n">
-        <v>2474516</v>
+        <v>48373933</v>
       </c>
     </row>
     <row r="656">
@@ -34460,51 +34528,51 @@
         <v>1401</v>
       </c>
       <c r="B656" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>خراسان شمالی</t>
+          <t>زنجان</t>
         </is>
       </c>
       <c r="D656" t="n">
-        <v>9149067</v>
+        <v>13605262</v>
       </c>
       <c r="E656" t="n">
-        <v>768</v>
+        <v>1330</v>
       </c>
       <c r="F656" t="n">
-        <v>61455</v>
+        <v>138865</v>
       </c>
       <c r="G656" t="n">
-        <v>21006</v>
+        <v>26152</v>
       </c>
       <c r="H656" t="n">
-        <v>6183133</v>
+        <v>2821618</v>
       </c>
       <c r="I656" t="n">
-        <v>8648</v>
+        <v>85683</v>
       </c>
       <c r="J656" t="n">
-        <v>96499</v>
+        <v>96353</v>
       </c>
       <c r="K656" t="n">
-        <v>0</v>
+        <v>654551</v>
       </c>
       <c r="L656" t="n">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="M656" t="n">
         <v>0</v>
       </c>
       <c r="N656" t="n">
-        <v>3832</v>
+        <v>11730</v>
       </c>
       <c r="O656" t="n">
-        <v>2215136</v>
+        <v>9294805</v>
       </c>
       <c r="P656" t="n">
-        <v>558591</v>
+        <v>468777</v>
       </c>
     </row>
     <row r="657">
@@ -34512,51 +34580,51 @@
         <v>1401</v>
       </c>
       <c r="B657" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>خوزستان</t>
+          <t>سمنان</t>
         </is>
       </c>
       <c r="D657" t="n">
-        <v>267984243</v>
+        <v>11473867</v>
       </c>
       <c r="E657" t="n">
-        <v>166</v>
+        <v>2707</v>
       </c>
       <c r="F657" t="n">
-        <v>1252821</v>
+        <v>238485</v>
       </c>
       <c r="G657" t="n">
-        <v>6340289</v>
+        <v>39825</v>
       </c>
       <c r="H657" t="n">
-        <v>79885987</v>
+        <v>3005890</v>
       </c>
       <c r="I657" t="n">
-        <v>682111</v>
+        <v>189525</v>
       </c>
       <c r="J657" t="n">
-        <v>116624</v>
+        <v>60241</v>
       </c>
       <c r="K657" t="n">
-        <v>1618</v>
+        <v>24125</v>
       </c>
       <c r="L657" t="n">
-        <v>0</v>
+        <v>63639</v>
       </c>
       <c r="M657" t="n">
-        <v>90495</v>
+        <v>0</v>
       </c>
       <c r="N657" t="n">
-        <v>9914737</v>
+        <v>431594</v>
       </c>
       <c r="O657" t="n">
-        <v>121325461</v>
+        <v>4092498</v>
       </c>
       <c r="P657" t="n">
-        <v>48373933</v>
+        <v>3325336</v>
       </c>
     </row>
     <row r="658">
@@ -34564,51 +34632,51 @@
         <v>1401</v>
       </c>
       <c r="B658" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>زنجان</t>
+          <t>سیستان و بلوچستان</t>
         </is>
       </c>
       <c r="D658" t="n">
-        <v>13605262</v>
+        <v>3064759</v>
       </c>
       <c r="E658" t="n">
-        <v>1330</v>
+        <v>1172</v>
       </c>
       <c r="F658" t="n">
-        <v>138865</v>
+        <v>211121</v>
       </c>
       <c r="G658" t="n">
-        <v>26152</v>
+        <v>20944</v>
       </c>
       <c r="H658" t="n">
-        <v>2821618</v>
+        <v>365575</v>
       </c>
       <c r="I658" t="n">
-        <v>85683</v>
+        <v>30963</v>
       </c>
       <c r="J658" t="n">
-        <v>96353</v>
+        <v>1606561</v>
       </c>
       <c r="K658" t="n">
-        <v>654551</v>
+        <v>0</v>
       </c>
       <c r="L658" t="n">
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="M658" t="n">
         <v>0</v>
       </c>
       <c r="N658" t="n">
-        <v>11730</v>
+        <v>517</v>
       </c>
       <c r="O658" t="n">
-        <v>9294805</v>
+        <v>761109</v>
       </c>
       <c r="P658" t="n">
-        <v>468777</v>
+        <v>66796</v>
       </c>
     </row>
     <row r="659">
@@ -34616,51 +34684,51 @@
         <v>1401</v>
       </c>
       <c r="B659" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>سمنان</t>
+          <t>فارس</t>
         </is>
       </c>
       <c r="D659" t="n">
-        <v>11473867</v>
+        <v>66356222</v>
       </c>
       <c r="E659" t="n">
-        <v>2707</v>
+        <v>6309</v>
       </c>
       <c r="F659" t="n">
-        <v>238485</v>
+        <v>422197</v>
       </c>
       <c r="G659" t="n">
-        <v>39825</v>
+        <v>72520</v>
       </c>
       <c r="H659" t="n">
-        <v>3005890</v>
+        <v>29986364</v>
       </c>
       <c r="I659" t="n">
-        <v>189525</v>
+        <v>167683</v>
       </c>
       <c r="J659" t="n">
-        <v>60241</v>
+        <v>1094403</v>
       </c>
       <c r="K659" t="n">
-        <v>24125</v>
+        <v>121747</v>
       </c>
       <c r="L659" t="n">
-        <v>63639</v>
+        <v>4</v>
       </c>
       <c r="M659" t="n">
         <v>0</v>
       </c>
       <c r="N659" t="n">
-        <v>431594</v>
+        <v>137396</v>
       </c>
       <c r="O659" t="n">
-        <v>4092498</v>
+        <v>29415273</v>
       </c>
       <c r="P659" t="n">
-        <v>3325336</v>
+        <v>4932325</v>
       </c>
     </row>
     <row r="660">
@@ -34668,51 +34736,51 @@
         <v>1401</v>
       </c>
       <c r="B660" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>سیستان و بلوچستان</t>
+          <t>قزوین</t>
         </is>
       </c>
       <c r="D660" t="n">
-        <v>3064759</v>
+        <v>13580124</v>
       </c>
       <c r="E660" t="n">
-        <v>1172</v>
+        <v>10540</v>
       </c>
       <c r="F660" t="n">
-        <v>211121</v>
+        <v>476536</v>
       </c>
       <c r="G660" t="n">
-        <v>20944</v>
+        <v>49827</v>
       </c>
       <c r="H660" t="n">
-        <v>365575</v>
+        <v>5559050</v>
       </c>
       <c r="I660" t="n">
-        <v>30963</v>
+        <v>205497</v>
       </c>
       <c r="J660" t="n">
-        <v>1606561</v>
+        <v>63779</v>
       </c>
       <c r="K660" t="n">
-        <v>0</v>
+        <v>84440</v>
       </c>
       <c r="L660" t="n">
-        <v>0</v>
+        <v>1488</v>
       </c>
       <c r="M660" t="n">
         <v>0</v>
       </c>
       <c r="N660" t="n">
-        <v>517</v>
+        <v>52191</v>
       </c>
       <c r="O660" t="n">
-        <v>761109</v>
+        <v>6048509</v>
       </c>
       <c r="P660" t="n">
-        <v>66796</v>
+        <v>1028268</v>
       </c>
     </row>
     <row r="661">
@@ -34720,51 +34788,51 @@
         <v>1401</v>
       </c>
       <c r="B661" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>فارس</t>
+          <t>قم</t>
         </is>
       </c>
       <c r="D661" t="n">
-        <v>66356222</v>
+        <v>8044838</v>
       </c>
       <c r="E661" t="n">
-        <v>6309</v>
+        <v>1463</v>
       </c>
       <c r="F661" t="n">
-        <v>422197</v>
+        <v>166558</v>
       </c>
       <c r="G661" t="n">
-        <v>72520</v>
+        <v>30647</v>
       </c>
       <c r="H661" t="n">
-        <v>29986364</v>
+        <v>1690370</v>
       </c>
       <c r="I661" t="n">
-        <v>167683</v>
+        <v>98394</v>
       </c>
       <c r="J661" t="n">
-        <v>1094403</v>
+        <v>293015</v>
       </c>
       <c r="K661" t="n">
-        <v>121747</v>
+        <v>0</v>
       </c>
       <c r="L661" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M661" t="n">
         <v>0</v>
       </c>
       <c r="N661" t="n">
-        <v>137396</v>
+        <v>1134608</v>
       </c>
       <c r="O661" t="n">
-        <v>29415273</v>
+        <v>3875586</v>
       </c>
       <c r="P661" t="n">
-        <v>4932325</v>
+        <v>754198</v>
       </c>
     </row>
     <row r="662">
@@ -34772,51 +34840,51 @@
         <v>1401</v>
       </c>
       <c r="B662" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>قزوین</t>
+          <t>کردستان</t>
         </is>
       </c>
       <c r="D662" t="n">
-        <v>13580124</v>
+        <v>3406011</v>
       </c>
       <c r="E662" t="n">
-        <v>10540</v>
+        <v>669</v>
       </c>
       <c r="F662" t="n">
-        <v>476536</v>
+        <v>41745</v>
       </c>
       <c r="G662" t="n">
-        <v>49827</v>
+        <v>23545</v>
       </c>
       <c r="H662" t="n">
-        <v>5559050</v>
+        <v>763514</v>
       </c>
       <c r="I662" t="n">
-        <v>205497</v>
+        <v>108605</v>
       </c>
       <c r="J662" t="n">
-        <v>63779</v>
+        <v>296192</v>
       </c>
       <c r="K662" t="n">
-        <v>84440</v>
+        <v>0</v>
       </c>
       <c r="L662" t="n">
-        <v>1488</v>
+        <v>0</v>
       </c>
       <c r="M662" t="n">
         <v>0</v>
       </c>
       <c r="N662" t="n">
-        <v>52191</v>
+        <v>305</v>
       </c>
       <c r="O662" t="n">
-        <v>6048509</v>
+        <v>1881960</v>
       </c>
       <c r="P662" t="n">
-        <v>1028268</v>
+        <v>289476</v>
       </c>
     </row>
     <row r="663">
@@ -34824,51 +34892,51 @@
         <v>1401</v>
       </c>
       <c r="B663" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>قم</t>
+          <t>کرمان</t>
         </is>
       </c>
       <c r="D663" t="n">
-        <v>8044838</v>
+        <v>75544510</v>
       </c>
       <c r="E663" t="n">
-        <v>1463</v>
+        <v>178554</v>
       </c>
       <c r="F663" t="n">
-        <v>166558</v>
+        <v>563480</v>
       </c>
       <c r="G663" t="n">
-        <v>30647</v>
+        <v>20098</v>
       </c>
       <c r="H663" t="n">
-        <v>1690370</v>
+        <v>36599843</v>
       </c>
       <c r="I663" t="n">
-        <v>98394</v>
+        <v>169199</v>
       </c>
       <c r="J663" t="n">
-        <v>293015</v>
+        <v>94346</v>
       </c>
       <c r="K663" t="n">
-        <v>0</v>
+        <v>298633</v>
       </c>
       <c r="L663" t="n">
-        <v>0</v>
+        <v>46732</v>
       </c>
       <c r="M663" t="n">
         <v>0</v>
       </c>
       <c r="N663" t="n">
-        <v>1134608</v>
+        <v>1125013</v>
       </c>
       <c r="O663" t="n">
-        <v>3875586</v>
+        <v>33758913</v>
       </c>
       <c r="P663" t="n">
-        <v>754198</v>
+        <v>2689698</v>
       </c>
     </row>
     <row r="664">
@@ -34876,33 +34944,33 @@
         <v>1401</v>
       </c>
       <c r="B664" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>کردستان</t>
+          <t>کرمانشاه</t>
         </is>
       </c>
       <c r="D664" t="n">
-        <v>3406011</v>
+        <v>16802329</v>
       </c>
       <c r="E664" t="n">
-        <v>669</v>
+        <v>346</v>
       </c>
       <c r="F664" t="n">
-        <v>41745</v>
+        <v>275092</v>
       </c>
       <c r="G664" t="n">
-        <v>23545</v>
+        <v>5653</v>
       </c>
       <c r="H664" t="n">
-        <v>763514</v>
+        <v>8585672</v>
       </c>
       <c r="I664" t="n">
-        <v>108605</v>
+        <v>33290</v>
       </c>
       <c r="J664" t="n">
-        <v>296192</v>
+        <v>766939</v>
       </c>
       <c r="K664" t="n">
         <v>0</v>
@@ -34914,13 +34982,13 @@
         <v>0</v>
       </c>
       <c r="N664" t="n">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="O664" t="n">
-        <v>1881960</v>
+        <v>2810455</v>
       </c>
       <c r="P664" t="n">
-        <v>289476</v>
+        <v>4324557</v>
       </c>
     </row>
     <row r="665">
@@ -34928,51 +34996,51 @@
         <v>1401</v>
       </c>
       <c r="B665" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>کرمان</t>
+          <t>کهگیلویه و بویراحمد</t>
         </is>
       </c>
       <c r="D665" t="n">
-        <v>75544510</v>
+        <v>529300</v>
       </c>
       <c r="E665" t="n">
-        <v>178554</v>
+        <v>573</v>
       </c>
       <c r="F665" t="n">
-        <v>563480</v>
+        <v>25510</v>
       </c>
       <c r="G665" t="n">
-        <v>20098</v>
+        <v>2331</v>
       </c>
       <c r="H665" t="n">
-        <v>36599843</v>
+        <v>191246</v>
       </c>
       <c r="I665" t="n">
-        <v>169199</v>
+        <v>7179</v>
       </c>
       <c r="J665" t="n">
-        <v>94346</v>
+        <v>90556</v>
       </c>
       <c r="K665" t="n">
-        <v>298633</v>
+        <v>0</v>
       </c>
       <c r="L665" t="n">
-        <v>46732</v>
+        <v>0</v>
       </c>
       <c r="M665" t="n">
         <v>0</v>
       </c>
       <c r="N665" t="n">
-        <v>1125013</v>
+        <v>1820</v>
       </c>
       <c r="O665" t="n">
-        <v>33758913</v>
+        <v>172247</v>
       </c>
       <c r="P665" t="n">
-        <v>2689698</v>
+        <v>37836</v>
       </c>
     </row>
     <row r="666">
@@ -34980,33 +35048,33 @@
         <v>1401</v>
       </c>
       <c r="B666" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>کرمانشاه</t>
+          <t>گلستان</t>
         </is>
       </c>
       <c r="D666" t="n">
-        <v>16802329</v>
+        <v>2681987</v>
       </c>
       <c r="E666" t="n">
-        <v>346</v>
+        <v>219</v>
       </c>
       <c r="F666" t="n">
-        <v>275092</v>
+        <v>93794</v>
       </c>
       <c r="G666" t="n">
-        <v>5653</v>
+        <v>3729</v>
       </c>
       <c r="H666" t="n">
-        <v>8585672</v>
+        <v>1338912</v>
       </c>
       <c r="I666" t="n">
-        <v>33290</v>
+        <v>41029</v>
       </c>
       <c r="J666" t="n">
-        <v>766939</v>
+        <v>197802</v>
       </c>
       <c r="K666" t="n">
         <v>0</v>
@@ -35018,13 +35086,13 @@
         <v>0</v>
       </c>
       <c r="N666" t="n">
-        <v>326</v>
+        <v>67438</v>
       </c>
       <c r="O666" t="n">
-        <v>2810455</v>
+        <v>814239</v>
       </c>
       <c r="P666" t="n">
-        <v>4324557</v>
+        <v>124825</v>
       </c>
     </row>
     <row r="667">
@@ -35032,33 +35100,33 @@
         <v>1401</v>
       </c>
       <c r="B667" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>کهگیلویه و بویراحمد</t>
+          <t>گیلان</t>
         </is>
       </c>
       <c r="D667" t="n">
-        <v>529300</v>
+        <v>8426467</v>
       </c>
       <c r="E667" t="n">
-        <v>573</v>
+        <v>967</v>
       </c>
       <c r="F667" t="n">
-        <v>25510</v>
+        <v>127398</v>
       </c>
       <c r="G667" t="n">
-        <v>2331</v>
+        <v>18741</v>
       </c>
       <c r="H667" t="n">
-        <v>191246</v>
+        <v>2895522</v>
       </c>
       <c r="I667" t="n">
-        <v>7179</v>
+        <v>98726</v>
       </c>
       <c r="J667" t="n">
-        <v>90556</v>
+        <v>222284</v>
       </c>
       <c r="K667" t="n">
         <v>0</v>
@@ -35070,13 +35138,13 @@
         <v>0</v>
       </c>
       <c r="N667" t="n">
-        <v>1820</v>
+        <v>2188</v>
       </c>
       <c r="O667" t="n">
-        <v>172247</v>
+        <v>4796586</v>
       </c>
       <c r="P667" t="n">
-        <v>37836</v>
+        <v>264055</v>
       </c>
     </row>
     <row r="668">
@@ -35084,33 +35152,33 @@
         <v>1401</v>
       </c>
       <c r="B668" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>گلستان</t>
+          <t>لرستان</t>
         </is>
       </c>
       <c r="D668" t="n">
-        <v>2681987</v>
+        <v>5573846</v>
       </c>
       <c r="E668" t="n">
-        <v>219</v>
+        <v>332</v>
       </c>
       <c r="F668" t="n">
-        <v>93794</v>
+        <v>127951</v>
       </c>
       <c r="G668" t="n">
-        <v>3729</v>
+        <v>4379</v>
       </c>
       <c r="H668" t="n">
-        <v>1338912</v>
+        <v>1327049</v>
       </c>
       <c r="I668" t="n">
-        <v>41029</v>
+        <v>30109</v>
       </c>
       <c r="J668" t="n">
-        <v>197802</v>
+        <v>3255</v>
       </c>
       <c r="K668" t="n">
         <v>0</v>
@@ -35122,13 +35190,13 @@
         <v>0</v>
       </c>
       <c r="N668" t="n">
-        <v>67438</v>
+        <v>328165</v>
       </c>
       <c r="O668" t="n">
-        <v>814239</v>
+        <v>3555026</v>
       </c>
       <c r="P668" t="n">
-        <v>124825</v>
+        <v>197579</v>
       </c>
     </row>
     <row r="669">
@@ -35136,51 +35204,51 @@
         <v>1401</v>
       </c>
       <c r="B669" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>گیلان</t>
+          <t>مازندران</t>
         </is>
       </c>
       <c r="D669" t="n">
-        <v>8426467</v>
+        <v>8539716</v>
       </c>
       <c r="E669" t="n">
-        <v>967</v>
+        <v>1054</v>
       </c>
       <c r="F669" t="n">
-        <v>127398</v>
+        <v>391041</v>
       </c>
       <c r="G669" t="n">
-        <v>18741</v>
+        <v>62592</v>
       </c>
       <c r="H669" t="n">
-        <v>2895522</v>
+        <v>3528974</v>
       </c>
       <c r="I669" t="n">
-        <v>98726</v>
+        <v>111927</v>
       </c>
       <c r="J669" t="n">
-        <v>222284</v>
+        <v>590478</v>
       </c>
       <c r="K669" t="n">
         <v>0</v>
       </c>
       <c r="L669" t="n">
-        <v>0</v>
+        <v>4804</v>
       </c>
       <c r="M669" t="n">
         <v>0</v>
       </c>
       <c r="N669" t="n">
-        <v>2188</v>
+        <v>63738</v>
       </c>
       <c r="O669" t="n">
-        <v>4796586</v>
+        <v>3468099</v>
       </c>
       <c r="P669" t="n">
-        <v>264055</v>
+        <v>317009</v>
       </c>
     </row>
     <row r="670">
@@ -35188,51 +35256,51 @@
         <v>1401</v>
       </c>
       <c r="B670" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>لرستان</t>
+          <t>مرکزی</t>
         </is>
       </c>
       <c r="D670" t="n">
-        <v>5573846</v>
+        <v>72373707</v>
       </c>
       <c r="E670" t="n">
-        <v>332</v>
+        <v>30606</v>
       </c>
       <c r="F670" t="n">
-        <v>127951</v>
+        <v>221864</v>
       </c>
       <c r="G670" t="n">
-        <v>4379</v>
+        <v>64871</v>
       </c>
       <c r="H670" t="n">
-        <v>1327049</v>
+        <v>20485165</v>
       </c>
       <c r="I670" t="n">
-        <v>30109</v>
+        <v>132698</v>
       </c>
       <c r="J670" t="n">
-        <v>3255</v>
+        <v>261614</v>
       </c>
       <c r="K670" t="n">
-        <v>0</v>
+        <v>16459</v>
       </c>
       <c r="L670" t="n">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="M670" t="n">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="N670" t="n">
-        <v>328165</v>
+        <v>2861846</v>
       </c>
       <c r="O670" t="n">
-        <v>3555026</v>
+        <v>46505824</v>
       </c>
       <c r="P670" t="n">
-        <v>197579</v>
+        <v>1789507</v>
       </c>
     </row>
     <row r="671">
@@ -35240,51 +35308,51 @@
         <v>1401</v>
       </c>
       <c r="B671" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>مازندران</t>
+          <t>هرمزگان</t>
         </is>
       </c>
       <c r="D671" t="n">
-        <v>8539716</v>
+        <v>275297085</v>
       </c>
       <c r="E671" t="n">
-        <v>1054</v>
+        <v>3782</v>
       </c>
       <c r="F671" t="n">
-        <v>391041</v>
+        <v>1940936</v>
       </c>
       <c r="G671" t="n">
-        <v>62592</v>
+        <v>53330224</v>
       </c>
       <c r="H671" t="n">
-        <v>3528974</v>
+        <v>64961577</v>
       </c>
       <c r="I671" t="n">
-        <v>111927</v>
+        <v>57626</v>
       </c>
       <c r="J671" t="n">
-        <v>590478</v>
+        <v>6766054</v>
       </c>
       <c r="K671" t="n">
         <v>0</v>
       </c>
       <c r="L671" t="n">
-        <v>4804</v>
+        <v>0</v>
       </c>
       <c r="M671" t="n">
-        <v>0</v>
+        <v>3687</v>
       </c>
       <c r="N671" t="n">
-        <v>63738</v>
+        <v>106342009</v>
       </c>
       <c r="O671" t="n">
-        <v>3468099</v>
+        <v>37344293</v>
       </c>
       <c r="P671" t="n">
-        <v>317009</v>
+        <v>4546897</v>
       </c>
     </row>
     <row r="672">
@@ -35292,51 +35360,51 @@
         <v>1401</v>
       </c>
       <c r="B672" t="n">
+        <v>30</v>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>همدان</t>
+        </is>
+      </c>
+      <c r="D672" t="n">
+        <v>6556911</v>
+      </c>
+      <c r="E672" t="n">
+        <v>1219</v>
+      </c>
+      <c r="F672" t="n">
+        <v>64281</v>
+      </c>
+      <c r="G672" t="n">
+        <v>14269</v>
+      </c>
+      <c r="H672" t="n">
+        <v>2631414</v>
+      </c>
+      <c r="I672" t="n">
+        <v>97748</v>
+      </c>
+      <c r="J672" t="n">
+        <v>250424</v>
+      </c>
+      <c r="K672" t="n">
+        <v>0</v>
+      </c>
+      <c r="L672" t="n">
         <v>28</v>
       </c>
-      <c r="C672" t="inlineStr">
-        <is>
-          <t>مرکزی</t>
-        </is>
-      </c>
-      <c r="D672" t="n">
-        <v>72373707</v>
-      </c>
-      <c r="E672" t="n">
-        <v>30606</v>
-      </c>
-      <c r="F672" t="n">
-        <v>221864</v>
-      </c>
-      <c r="G672" t="n">
-        <v>64871</v>
-      </c>
-      <c r="H672" t="n">
-        <v>20485165</v>
-      </c>
-      <c r="I672" t="n">
-        <v>132698</v>
-      </c>
-      <c r="J672" t="n">
-        <v>261614</v>
-      </c>
-      <c r="K672" t="n">
-        <v>16459</v>
-      </c>
-      <c r="L672" t="n">
-        <v>2700</v>
-      </c>
       <c r="M672" t="n">
-        <v>553</v>
+        <v>0</v>
       </c>
       <c r="N672" t="n">
-        <v>2861846</v>
+        <v>1587</v>
       </c>
       <c r="O672" t="n">
-        <v>46505824</v>
+        <v>3022110</v>
       </c>
       <c r="P672" t="n">
-        <v>1789507</v>
+        <v>473831</v>
       </c>
     </row>
     <row r="673">
@@ -35344,33 +35412,33 @@
         <v>1401</v>
       </c>
       <c r="B673" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>هرمزگان</t>
+          <t>یزد</t>
         </is>
       </c>
       <c r="D673" t="n">
-        <v>275297085</v>
+        <v>70287108</v>
       </c>
       <c r="E673" t="n">
-        <v>3782</v>
+        <v>893</v>
       </c>
       <c r="F673" t="n">
-        <v>1940936</v>
+        <v>592481</v>
       </c>
       <c r="G673" t="n">
-        <v>53330224</v>
+        <v>42998</v>
       </c>
       <c r="H673" t="n">
-        <v>64961577</v>
+        <v>39897765</v>
       </c>
       <c r="I673" t="n">
-        <v>57626</v>
+        <v>176029</v>
       </c>
       <c r="J673" t="n">
-        <v>6766054</v>
+        <v>368090</v>
       </c>
       <c r="K673" t="n">
         <v>0</v>
@@ -35379,119 +35447,15 @@
         <v>0</v>
       </c>
       <c r="M673" t="n">
-        <v>3687</v>
+        <v>0</v>
       </c>
       <c r="N673" t="n">
-        <v>106342009</v>
+        <v>6368</v>
       </c>
       <c r="O673" t="n">
-        <v>37344293</v>
+        <v>25734964</v>
       </c>
       <c r="P673" t="n">
-        <v>4546897</v>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="n">
-        <v>1401</v>
-      </c>
-      <c r="B674" t="n">
-        <v>30</v>
-      </c>
-      <c r="C674" t="inlineStr">
-        <is>
-          <t>همدان</t>
-        </is>
-      </c>
-      <c r="D674" t="n">
-        <v>6556911</v>
-      </c>
-      <c r="E674" t="n">
-        <v>1219</v>
-      </c>
-      <c r="F674" t="n">
-        <v>64281</v>
-      </c>
-      <c r="G674" t="n">
-        <v>14269</v>
-      </c>
-      <c r="H674" t="n">
-        <v>2631414</v>
-      </c>
-      <c r="I674" t="n">
-        <v>97748</v>
-      </c>
-      <c r="J674" t="n">
-        <v>250424</v>
-      </c>
-      <c r="K674" t="n">
-        <v>0</v>
-      </c>
-      <c r="L674" t="n">
-        <v>28</v>
-      </c>
-      <c r="M674" t="n">
-        <v>0</v>
-      </c>
-      <c r="N674" t="n">
-        <v>1587</v>
-      </c>
-      <c r="O674" t="n">
-        <v>3022110</v>
-      </c>
-      <c r="P674" t="n">
-        <v>473831</v>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="n">
-        <v>1401</v>
-      </c>
-      <c r="B675" t="n">
-        <v>31</v>
-      </c>
-      <c r="C675" t="inlineStr">
-        <is>
-          <t>یزد</t>
-        </is>
-      </c>
-      <c r="D675" t="n">
-        <v>70287108</v>
-      </c>
-      <c r="E675" t="n">
-        <v>893</v>
-      </c>
-      <c r="F675" t="n">
-        <v>592481</v>
-      </c>
-      <c r="G675" t="n">
-        <v>42998</v>
-      </c>
-      <c r="H675" t="n">
-        <v>39897765</v>
-      </c>
-      <c r="I675" t="n">
-        <v>176029</v>
-      </c>
-      <c r="J675" t="n">
-        <v>368090</v>
-      </c>
-      <c r="K675" t="n">
-        <v>0</v>
-      </c>
-      <c r="L675" t="n">
-        <v>0</v>
-      </c>
-      <c r="M675" t="n">
-        <v>0</v>
-      </c>
-      <c r="N675" t="n">
-        <v>6368</v>
-      </c>
-      <c r="O675" t="n">
-        <v>25734964</v>
-      </c>
-      <c r="P675" t="n">
         <v>3467522</v>
       </c>
     </row>
